--- a/modules/reports/client/excels/template/Clean.xlsx
+++ b/modules/reports/client/excels/template/Clean.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\working_report\src\ep_cms\modules\reports\client\excels\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_report\src\ep_cms\modules\reports\client\excels\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B984A4-078B-462C-8DF8-E4887B965810}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9516" windowHeight="3408"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="報告書" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">報告書!$A$1:$AY$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">報告書!$A$1:$AY$89</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>管理No</t>
     <rPh sb="0" eb="2">
@@ -358,16 +359,6 @@
   </si>
   <si>
     <t>☎：0120-39-6366</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手書き入力</t>
-    <rPh sb="0" eb="2">
-      <t>テガ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -626,7 +617,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1527,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1687,6 +1678,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1846,9 +1861,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,9 +1876,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1924,9 +1933,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2016,8 +2022,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2051,7 +2057,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>15365</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>40141</xdr:rowOff>
+      <xdr:rowOff>40140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2400,300 +2406,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX89"/>
+  <dimension ref="A1:AX91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="48" width="3.44140625" customWidth="1"/>
-    <col min="49" max="49" width="3.5546875" customWidth="1"/>
-    <col min="50" max="53" width="3.44140625" customWidth="1"/>
+    <col min="1" max="41" width="3.42578125" customWidth="1"/>
+    <col min="42" max="42" width="2.5703125" customWidth="1"/>
+    <col min="43" max="43" width="3.85546875" customWidth="1"/>
+    <col min="44" max="47" width="3.42578125" customWidth="1"/>
+    <col min="48" max="48" width="4.7109375" customWidth="1"/>
+    <col min="49" max="49" width="2.5703125" customWidth="1"/>
+    <col min="50" max="53" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="18">
-      <c r="A1" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="150"/>
-      <c r="AW1" s="150"/>
-    </row>
-    <row r="2" spans="1:50" ht="5.4" customHeight="1"/>
-    <row r="3" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A3" s="157" t="s">
+    <row r="1" spans="1:50" ht="18.75">
+      <c r="A1" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="155"/>
+      <c r="AN1" s="155"/>
+      <c r="AO1" s="155"/>
+      <c r="AP1" s="155"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="155"/>
+      <c r="AT1" s="155"/>
+      <c r="AU1" s="155"/>
+      <c r="AV1" s="155"/>
+      <c r="AW1" s="155"/>
+    </row>
+    <row r="2" spans="1:50" ht="5.45" customHeight="1"/>
+    <row r="3" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A3" s="162" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+    </row>
+    <row r="4" spans="1:50" ht="5.45" customHeight="1"/>
+    <row r="5" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A5" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-    </row>
-    <row r="4" spans="1:50" ht="5.4" customHeight="1"/>
-    <row r="5" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A5" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="158" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="58"/>
+      <c r="W5" s="66"/>
       <c r="X5" s="51"/>
-      <c r="Y5" s="160" t="s">
+      <c r="Y5" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="156"/>
-      <c r="AD5" s="156"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
       <c r="AE5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" s="156"/>
-      <c r="AG5" s="156"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="161"/>
       <c r="AH5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="156"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="161"/>
       <c r="AK5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="AL5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM5" s="15"/>
       <c r="AN5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO5" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP5" s="161"/>
+      <c r="AQ5" s="158"/>
+      <c r="AR5" s="158"/>
+      <c r="AS5" s="158"/>
+      <c r="AT5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AO5" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="153"/>
-      <c r="AR5" s="153"/>
-      <c r="AS5" s="153"/>
-      <c r="AT5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU5" s="153"/>
-      <c r="AV5" s="153"/>
-      <c r="AW5" s="154"/>
+      <c r="AU5" s="158"/>
+      <c r="AV5" s="158"/>
+      <c r="AW5" s="159"/>
       <c r="AX5" s="49"/>
     </row>
-    <row r="6" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A6" s="87" t="s">
+    <row r="6" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A6" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="90"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="98"/>
       <c r="X6" s="51"/>
-      <c r="Y6" s="81" t="s">
+      <c r="Y6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
       <c r="AE6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
       <c r="AH6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
       <c r="AK6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM6" s="11"/>
       <c r="AN6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO6" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO6" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="151"/>
-      <c r="AR6" s="151"/>
-      <c r="AS6" s="151"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
       <c r="AT6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU6" s="151"/>
-      <c r="AV6" s="151"/>
-      <c r="AW6" s="152"/>
+        <v>71</v>
+      </c>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="157"/>
       <c r="AX6" s="49"/>
     </row>
-    <row r="7" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="94"/>
+    <row r="7" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="102"/>
       <c r="X7" s="51"/>
-      <c r="Y7" s="83" t="s">
+      <c r="Y7" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="56" t="s">
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
       <c r="AF7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="56" t="s">
+      <c r="AG7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
       <c r="AK7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AL7" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
+      <c r="AL7" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
       <c r="AQ7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AR7" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
+      <c r="AR7" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="65"/>
       <c r="AW7" s="7" t="s">
         <v>25</v>
       </c>
@@ -2749,117 +2759,117 @@
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
     </row>
-    <row r="9" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A9" s="56" t="s">
+    <row r="9" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A9" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="80"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="88"/>
       <c r="AJ9" s="4"/>
-      <c r="AK9" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="78"/>
-    </row>
-    <row r="10" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="71"/>
+      <c r="AK9" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="86"/>
+    </row>
+    <row r="10" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A10" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="79"/>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="68" t="s">
+      <c r="AK10" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="70"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="70"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="78"/>
     </row>
     <row r="11" spans="1:50" ht="9" customHeight="1">
       <c r="A11" s="1"/>
@@ -2912,665 +2922,665 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
     </row>
-    <row r="12" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A12" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="75" t="s">
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AV12" s="75"/>
-      <c r="AW12" s="75"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
       <c r="AX12" s="49"/>
     </row>
-    <row r="13" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A13" s="65" t="s">
+    <row r="13" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A13" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="53" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53" t="s">
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53" t="s">
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53" t="s">
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53" t="s">
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53" t="s">
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="74" t="s">
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AV13" s="74"/>
-      <c r="AW13" s="74"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
       <c r="AX13" s="49"/>
     </row>
-    <row r="14" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="72"/>
+    <row r="14" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="80"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="80"/>
       <c r="AX14" s="49"/>
     </row>
-    <row r="15" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="55"/>
-      <c r="AO15" s="55"/>
-      <c r="AP15" s="55"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="55"/>
-      <c r="AU15" s="55"/>
-      <c r="AV15" s="55"/>
-      <c r="AW15" s="73"/>
+    <row r="15" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="81"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="81"/>
       <c r="AX15" s="49"/>
     </row>
-    <row r="16" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="55"/>
-      <c r="AO16" s="55"/>
-      <c r="AP16" s="55"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="55"/>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="55"/>
-      <c r="AW16" s="73"/>
+    <row r="16" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="81"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="81"/>
       <c r="AX16" s="49"/>
     </row>
-    <row r="17" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="55"/>
-      <c r="AU17" s="55"/>
-      <c r="AV17" s="55"/>
-      <c r="AW17" s="73"/>
+    <row r="17" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="63"/>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="81"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+      <c r="AW17" s="81"/>
       <c r="AX17" s="49"/>
     </row>
-    <row r="18" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="55"/>
-      <c r="AT18" s="55"/>
-      <c r="AU18" s="55"/>
-      <c r="AV18" s="55"/>
-      <c r="AW18" s="73"/>
+    <row r="18" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="81"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="81"/>
       <c r="AX18" s="49"/>
     </row>
-    <row r="19" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="55"/>
-      <c r="AO19" s="55"/>
-      <c r="AP19" s="55"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="55"/>
-      <c r="AT19" s="55"/>
-      <c r="AU19" s="55"/>
-      <c r="AV19" s="55"/>
-      <c r="AW19" s="73"/>
+    <row r="19" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="81"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="81"/>
       <c r="AX19" s="49"/>
     </row>
-    <row r="20" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="55"/>
-      <c r="AU20" s="55"/>
-      <c r="AV20" s="55"/>
-      <c r="AW20" s="73"/>
+    <row r="20" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="81"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="81"/>
       <c r="AX20" s="49"/>
     </row>
-    <row r="21" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
-      <c r="AW21" s="73"/>
+    <row r="21" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
+      <c r="AN21" s="63"/>
+      <c r="AO21" s="63"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="81"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
+      <c r="AU21" s="63"/>
+      <c r="AV21" s="63"/>
+      <c r="AW21" s="81"/>
       <c r="AX21" s="49"/>
     </row>
-    <row r="22" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="55"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="54"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="55"/>
-      <c r="AV22" s="55"/>
-      <c r="AW22" s="73"/>
+    <row r="22" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
+      <c r="AN22" s="63"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="81"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="63"/>
+      <c r="AU22" s="63"/>
+      <c r="AV22" s="63"/>
+      <c r="AW22" s="81"/>
       <c r="AX22" s="49"/>
     </row>
     <row r="23" spans="1:50" ht="15.6" customHeight="1">
-      <c r="A23" s="133"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="143"/>
-      <c r="Z23" s="133"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="108"/>
-      <c r="AJ23" s="108"/>
-      <c r="AK23" s="108"/>
-      <c r="AL23" s="108"/>
-      <c r="AM23" s="108"/>
-      <c r="AN23" s="108"/>
-      <c r="AO23" s="108"/>
-      <c r="AP23" s="108"/>
-      <c r="AQ23" s="143"/>
-      <c r="AR23" s="133"/>
-      <c r="AS23" s="108"/>
-      <c r="AT23" s="108"/>
-      <c r="AU23" s="108"/>
-      <c r="AV23" s="108"/>
-      <c r="AW23" s="143"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="115"/>
+      <c r="X23" s="115"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="115"/>
+      <c r="AB23" s="115"/>
+      <c r="AC23" s="115"/>
+      <c r="AD23" s="115"/>
+      <c r="AE23" s="115"/>
+      <c r="AF23" s="115"/>
+      <c r="AG23" s="115"/>
+      <c r="AH23" s="115"/>
+      <c r="AI23" s="115"/>
+      <c r="AJ23" s="115"/>
+      <c r="AK23" s="115"/>
+      <c r="AL23" s="115"/>
+      <c r="AM23" s="115"/>
+      <c r="AN23" s="115"/>
+      <c r="AO23" s="115"/>
+      <c r="AP23" s="115"/>
+      <c r="AQ23" s="148"/>
+      <c r="AR23" s="138"/>
+      <c r="AS23" s="115"/>
+      <c r="AT23" s="115"/>
+      <c r="AU23" s="115"/>
+      <c r="AV23" s="115"/>
+      <c r="AW23" s="148"/>
       <c r="AX23" s="49"/>
     </row>
-    <row r="24" spans="1:50" ht="5.4" customHeight="1">
+    <row r="24" spans="1:50" ht="5.45" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -3618,684 +3628,684 @@
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
     </row>
-    <row r="25" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65" t="s">
+    <row r="25" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65" t="s">
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="110"/>
+      <c r="AJ25" s="110"/>
+      <c r="AK25" s="110"/>
+      <c r="AL25" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM25" s="110"/>
+      <c r="AN25" s="110"/>
+      <c r="AO25" s="110"/>
+      <c r="AP25" s="110"/>
+      <c r="AQ25" s="110"/>
+      <c r="AR25" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="102" t="s">
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="49"/>
+    </row>
+    <row r="26" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A26" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="144"/>
+      <c r="C26" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AG25" s="102"/>
-      <c r="AH25" s="102"/>
-      <c r="AI25" s="102"/>
-      <c r="AJ25" s="102"/>
-      <c r="AK25" s="102"/>
-      <c r="AL25" s="102" t="s">
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="AM25" s="102"/>
-      <c r="AN25" s="102"/>
-      <c r="AO25" s="102"/>
-      <c r="AP25" s="102"/>
-      <c r="AQ25" s="102"/>
-      <c r="AR25" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS25" s="65"/>
-      <c r="AT25" s="65"/>
-      <c r="AU25" s="65"/>
-      <c r="AV25" s="65"/>
-      <c r="AW25" s="65"/>
-      <c r="AX25" s="49"/>
-    </row>
-    <row r="26" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A26" s="138" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65" t="s">
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO26" s="73"/>
+      <c r="AP26" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="65"/>
-      <c r="AT26" s="65"/>
-      <c r="AU26" s="65"/>
-      <c r="AV26" s="65"/>
-      <c r="AW26" s="65"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="73"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
       <c r="AX26" s="49"/>
     </row>
-    <row r="27" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="105"/>
-      <c r="AC27" s="105"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="105"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="105"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="103"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="147"/>
-      <c r="AS27" s="147"/>
-      <c r="AT27" s="147"/>
-      <c r="AU27" s="147"/>
-      <c r="AV27" s="147"/>
-      <c r="AW27" s="148"/>
+    <row r="27" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="113"/>
+      <c r="AJ27" s="113"/>
+      <c r="AK27" s="113"/>
+      <c r="AL27" s="111"/>
+      <c r="AM27" s="111"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="111"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="152"/>
+      <c r="AS27" s="152"/>
+      <c r="AT27" s="152"/>
+      <c r="AU27" s="152"/>
+      <c r="AV27" s="152"/>
+      <c r="AW27" s="153"/>
       <c r="AX27" s="49"/>
     </row>
-    <row r="28" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="104"/>
-      <c r="AH28" s="104"/>
-      <c r="AI28" s="104"/>
-      <c r="AJ28" s="104"/>
-      <c r="AK28" s="104"/>
-      <c r="AL28" s="104"/>
-      <c r="AM28" s="104"/>
-      <c r="AN28" s="104"/>
-      <c r="AO28" s="104"/>
-      <c r="AP28" s="104"/>
-      <c r="AQ28" s="104"/>
-      <c r="AR28" s="114"/>
-      <c r="AS28" s="114"/>
-      <c r="AT28" s="114"/>
-      <c r="AU28" s="114"/>
-      <c r="AV28" s="114"/>
-      <c r="AW28" s="115"/>
+    <row r="28" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="112"/>
+      <c r="AI28" s="112"/>
+      <c r="AJ28" s="112"/>
+      <c r="AK28" s="112"/>
+      <c r="AL28" s="112"/>
+      <c r="AM28" s="112"/>
+      <c r="AN28" s="112"/>
+      <c r="AO28" s="112"/>
+      <c r="AP28" s="112"/>
+      <c r="AQ28" s="112"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="121"/>
       <c r="AX28" s="49"/>
     </row>
-    <row r="29" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="104"/>
-      <c r="AF29" s="104"/>
-      <c r="AG29" s="104"/>
-      <c r="AH29" s="104"/>
-      <c r="AI29" s="104"/>
-      <c r="AJ29" s="104"/>
-      <c r="AK29" s="104"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="104"/>
-      <c r="AN29" s="104"/>
-      <c r="AO29" s="104"/>
-      <c r="AP29" s="104"/>
-      <c r="AQ29" s="104"/>
-      <c r="AR29" s="114"/>
-      <c r="AS29" s="114"/>
-      <c r="AT29" s="114"/>
-      <c r="AU29" s="114"/>
-      <c r="AV29" s="114"/>
-      <c r="AW29" s="115"/>
+    <row r="29" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="112"/>
+      <c r="AI29" s="112"/>
+      <c r="AJ29" s="112"/>
+      <c r="AK29" s="112"/>
+      <c r="AL29" s="112"/>
+      <c r="AM29" s="112"/>
+      <c r="AN29" s="112"/>
+      <c r="AO29" s="112"/>
+      <c r="AP29" s="112"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="120"/>
+      <c r="AS29" s="120"/>
+      <c r="AT29" s="120"/>
+      <c r="AU29" s="120"/>
+      <c r="AV29" s="120"/>
+      <c r="AW29" s="121"/>
       <c r="AX29" s="49"/>
     </row>
-    <row r="30" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="104"/>
-      <c r="AH30" s="104"/>
-      <c r="AI30" s="104"/>
-      <c r="AJ30" s="104"/>
-      <c r="AK30" s="104"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="104"/>
-      <c r="AN30" s="104"/>
-      <c r="AO30" s="104"/>
-      <c r="AP30" s="104"/>
-      <c r="AQ30" s="104"/>
-      <c r="AR30" s="114"/>
-      <c r="AS30" s="114"/>
-      <c r="AT30" s="114"/>
-      <c r="AU30" s="114"/>
-      <c r="AV30" s="114"/>
-      <c r="AW30" s="115"/>
+    <row r="30" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="112"/>
+      <c r="AB30" s="112"/>
+      <c r="AC30" s="112"/>
+      <c r="AD30" s="112"/>
+      <c r="AE30" s="112"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="112"/>
+      <c r="AH30" s="112"/>
+      <c r="AI30" s="112"/>
+      <c r="AJ30" s="112"/>
+      <c r="AK30" s="112"/>
+      <c r="AL30" s="112"/>
+      <c r="AM30" s="112"/>
+      <c r="AN30" s="112"/>
+      <c r="AO30" s="112"/>
+      <c r="AP30" s="112"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="120"/>
+      <c r="AS30" s="120"/>
+      <c r="AT30" s="120"/>
+      <c r="AU30" s="120"/>
+      <c r="AV30" s="120"/>
+      <c r="AW30" s="121"/>
       <c r="AX30" s="49"/>
     </row>
-    <row r="31" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="104"/>
-      <c r="AF31" s="104"/>
-      <c r="AG31" s="104"/>
-      <c r="AH31" s="104"/>
-      <c r="AI31" s="104"/>
-      <c r="AJ31" s="104"/>
-      <c r="AK31" s="104"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="104"/>
-      <c r="AP31" s="104"/>
-      <c r="AQ31" s="104"/>
-      <c r="AR31" s="114"/>
-      <c r="AS31" s="114"/>
-      <c r="AT31" s="114"/>
-      <c r="AU31" s="114"/>
-      <c r="AV31" s="114"/>
-      <c r="AW31" s="115"/>
+    <row r="31" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="112"/>
+      <c r="AH31" s="112"/>
+      <c r="AI31" s="112"/>
+      <c r="AJ31" s="112"/>
+      <c r="AK31" s="112"/>
+      <c r="AL31" s="112"/>
+      <c r="AM31" s="112"/>
+      <c r="AN31" s="112"/>
+      <c r="AO31" s="112"/>
+      <c r="AP31" s="112"/>
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="120"/>
+      <c r="AS31" s="120"/>
+      <c r="AT31" s="120"/>
+      <c r="AU31" s="120"/>
+      <c r="AV31" s="120"/>
+      <c r="AW31" s="121"/>
       <c r="AX31" s="49"/>
     </row>
-    <row r="32" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="104"/>
-      <c r="AF32" s="104"/>
-      <c r="AG32" s="104"/>
-      <c r="AH32" s="104"/>
-      <c r="AI32" s="104"/>
-      <c r="AJ32" s="104"/>
-      <c r="AK32" s="104"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="104"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="104"/>
-      <c r="AP32" s="104"/>
-      <c r="AQ32" s="104"/>
-      <c r="AR32" s="114"/>
-      <c r="AS32" s="114"/>
-      <c r="AT32" s="114"/>
-      <c r="AU32" s="114"/>
-      <c r="AV32" s="114"/>
-      <c r="AW32" s="115"/>
+    <row r="32" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="112"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="112"/>
+      <c r="AH32" s="112"/>
+      <c r="AI32" s="112"/>
+      <c r="AJ32" s="112"/>
+      <c r="AK32" s="112"/>
+      <c r="AL32" s="112"/>
+      <c r="AM32" s="112"/>
+      <c r="AN32" s="112"/>
+      <c r="AO32" s="112"/>
+      <c r="AP32" s="112"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="120"/>
+      <c r="AS32" s="120"/>
+      <c r="AT32" s="120"/>
+      <c r="AU32" s="120"/>
+      <c r="AV32" s="120"/>
+      <c r="AW32" s="121"/>
       <c r="AX32" s="49"/>
     </row>
-    <row r="33" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="104"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="104"/>
-      <c r="AH33" s="104"/>
-      <c r="AI33" s="104"/>
-      <c r="AJ33" s="104"/>
-      <c r="AK33" s="104"/>
-      <c r="AL33" s="104"/>
-      <c r="AM33" s="104"/>
-      <c r="AN33" s="104"/>
-      <c r="AO33" s="104"/>
-      <c r="AP33" s="104"/>
-      <c r="AQ33" s="104"/>
-      <c r="AR33" s="114"/>
-      <c r="AS33" s="114"/>
-      <c r="AT33" s="114"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="115"/>
+    <row r="33" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="112"/>
+      <c r="AB33" s="112"/>
+      <c r="AC33" s="112"/>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="112"/>
+      <c r="AH33" s="112"/>
+      <c r="AI33" s="112"/>
+      <c r="AJ33" s="112"/>
+      <c r="AK33" s="112"/>
+      <c r="AL33" s="112"/>
+      <c r="AM33" s="112"/>
+      <c r="AN33" s="112"/>
+      <c r="AO33" s="112"/>
+      <c r="AP33" s="112"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="120"/>
+      <c r="AS33" s="120"/>
+      <c r="AT33" s="120"/>
+      <c r="AU33" s="120"/>
+      <c r="AV33" s="120"/>
+      <c r="AW33" s="121"/>
       <c r="AX33" s="49"/>
     </row>
-    <row r="34" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="104"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="104"/>
-      <c r="Z34" s="104"/>
-      <c r="AA34" s="104"/>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="104"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="104"/>
-      <c r="AF34" s="104"/>
-      <c r="AG34" s="104"/>
-      <c r="AH34" s="104"/>
-      <c r="AI34" s="104"/>
-      <c r="AJ34" s="104"/>
-      <c r="AK34" s="104"/>
-      <c r="AL34" s="104"/>
-      <c r="AM34" s="104"/>
-      <c r="AN34" s="104"/>
-      <c r="AO34" s="104"/>
-      <c r="AP34" s="104"/>
-      <c r="AQ34" s="104"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="114"/>
-      <c r="AT34" s="114"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="115"/>
+    <row r="34" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="112"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="112"/>
+      <c r="Z34" s="112"/>
+      <c r="AA34" s="112"/>
+      <c r="AB34" s="112"/>
+      <c r="AC34" s="112"/>
+      <c r="AD34" s="112"/>
+      <c r="AE34" s="112"/>
+      <c r="AF34" s="112"/>
+      <c r="AG34" s="112"/>
+      <c r="AH34" s="112"/>
+      <c r="AI34" s="112"/>
+      <c r="AJ34" s="112"/>
+      <c r="AK34" s="112"/>
+      <c r="AL34" s="112"/>
+      <c r="AM34" s="112"/>
+      <c r="AN34" s="112"/>
+      <c r="AO34" s="112"/>
+      <c r="AP34" s="112"/>
+      <c r="AQ34" s="112"/>
+      <c r="AR34" s="120"/>
+      <c r="AS34" s="120"/>
+      <c r="AT34" s="120"/>
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="121"/>
       <c r="AX34" s="49"/>
     </row>
-    <row r="35" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="104"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="104"/>
-      <c r="AF35" s="104"/>
-      <c r="AG35" s="104"/>
-      <c r="AH35" s="104"/>
-      <c r="AI35" s="104"/>
-      <c r="AJ35" s="104"/>
-      <c r="AK35" s="104"/>
-      <c r="AL35" s="104"/>
-      <c r="AM35" s="104"/>
-      <c r="AN35" s="104"/>
-      <c r="AO35" s="104"/>
-      <c r="AP35" s="104"/>
-      <c r="AQ35" s="104"/>
-      <c r="AR35" s="114"/>
-      <c r="AS35" s="114"/>
-      <c r="AT35" s="114"/>
-      <c r="AU35" s="114"/>
-      <c r="AV35" s="114"/>
-      <c r="AW35" s="115"/>
+    <row r="35" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="112"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="112"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="112"/>
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="112"/>
+      <c r="AE35" s="112"/>
+      <c r="AF35" s="112"/>
+      <c r="AG35" s="112"/>
+      <c r="AH35" s="112"/>
+      <c r="AI35" s="112"/>
+      <c r="AJ35" s="112"/>
+      <c r="AK35" s="112"/>
+      <c r="AL35" s="112"/>
+      <c r="AM35" s="112"/>
+      <c r="AN35" s="112"/>
+      <c r="AO35" s="112"/>
+      <c r="AP35" s="112"/>
+      <c r="AQ35" s="112"/>
+      <c r="AR35" s="120"/>
+      <c r="AS35" s="120"/>
+      <c r="AT35" s="120"/>
+      <c r="AU35" s="120"/>
+      <c r="AV35" s="120"/>
+      <c r="AW35" s="121"/>
       <c r="AX35" s="49"/>
     </row>
-    <row r="36" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A36" s="133"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="113"/>
-      <c r="AF36" s="113"/>
-      <c r="AG36" s="113"/>
-      <c r="AH36" s="109"/>
-      <c r="AI36" s="109"/>
-      <c r="AJ36" s="109"/>
-      <c r="AK36" s="109"/>
-      <c r="AL36" s="109"/>
-      <c r="AM36" s="109"/>
-      <c r="AN36" s="109"/>
-      <c r="AO36" s="109"/>
-      <c r="AP36" s="113"/>
-      <c r="AQ36" s="113"/>
-      <c r="AR36" s="116"/>
-      <c r="AS36" s="116"/>
-      <c r="AT36" s="116"/>
-      <c r="AU36" s="116"/>
-      <c r="AV36" s="116"/>
-      <c r="AW36" s="117"/>
+    <row r="36" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A36" s="138"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="119"/>
+      <c r="U36" s="119"/>
+      <c r="V36" s="119"/>
+      <c r="W36" s="119"/>
+      <c r="X36" s="119"/>
+      <c r="Y36" s="119"/>
+      <c r="Z36" s="119"/>
+      <c r="AA36" s="119"/>
+      <c r="AB36" s="119"/>
+      <c r="AC36" s="119"/>
+      <c r="AD36" s="119"/>
+      <c r="AE36" s="119"/>
+      <c r="AF36" s="119"/>
+      <c r="AG36" s="119"/>
+      <c r="AH36" s="116"/>
+      <c r="AI36" s="116"/>
+      <c r="AJ36" s="116"/>
+      <c r="AK36" s="116"/>
+      <c r="AL36" s="116"/>
+      <c r="AM36" s="116"/>
+      <c r="AN36" s="116"/>
+      <c r="AO36" s="116"/>
+      <c r="AP36" s="119"/>
+      <c r="AQ36" s="119"/>
+      <c r="AR36" s="122"/>
+      <c r="AS36" s="122"/>
+      <c r="AT36" s="122"/>
+      <c r="AU36" s="122"/>
+      <c r="AV36" s="122"/>
+      <c r="AW36" s="123"/>
       <c r="AX36" s="49"/>
     </row>
     <row r="37" spans="1:50" ht="6" customHeight="1">
@@ -4349,667 +4359,667 @@
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
     </row>
-    <row r="38" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A38" s="102" t="s">
+    <row r="38" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A38" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="102"/>
-      <c r="U38" s="102"/>
-      <c r="V38" s="102"/>
-      <c r="W38" s="102"/>
-      <c r="X38" s="102"/>
-      <c r="Y38" s="102"/>
-      <c r="Z38" s="102"/>
-      <c r="AA38" s="102"/>
-      <c r="AB38" s="102"/>
-      <c r="AC38" s="102"/>
-      <c r="AD38" s="102"/>
-      <c r="AE38" s="102"/>
-      <c r="AF38" s="102" t="s">
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="110"/>
+      <c r="T38" s="110"/>
+      <c r="U38" s="110"/>
+      <c r="V38" s="110"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="110"/>
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="110"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+      <c r="AF38" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="AG38" s="102"/>
-      <c r="AH38" s="102"/>
-      <c r="AI38" s="102"/>
-      <c r="AJ38" s="102"/>
-      <c r="AK38" s="102"/>
-      <c r="AL38" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM38" s="102"/>
-      <c r="AN38" s="102"/>
-      <c r="AO38" s="102"/>
-      <c r="AP38" s="102"/>
-      <c r="AQ38" s="102"/>
-      <c r="AR38" s="102" t="s">
+      <c r="AG38" s="110"/>
+      <c r="AH38" s="110"/>
+      <c r="AI38" s="110"/>
+      <c r="AJ38" s="110"/>
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM38" s="110"/>
+      <c r="AN38" s="110"/>
+      <c r="AO38" s="110"/>
+      <c r="AP38" s="110"/>
+      <c r="AQ38" s="110"/>
+      <c r="AR38" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="AS38" s="102"/>
-      <c r="AT38" s="102"/>
-      <c r="AU38" s="102" t="s">
+      <c r="AS38" s="110"/>
+      <c r="AT38" s="110"/>
+      <c r="AU38" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="AV38" s="102"/>
-      <c r="AW38" s="102"/>
+      <c r="AV38" s="110"/>
+      <c r="AW38" s="110"/>
       <c r="AX38" s="49"/>
     </row>
-    <row r="39" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A39" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65" t="s">
+    <row r="39" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A39" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65" t="s">
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="65"/>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="65" t="s">
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z39" s="118"/>
+      <c r="AA39" s="118"/>
+      <c r="AB39" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC39" s="73"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AG39" s="65"/>
-      <c r="AH39" s="65"/>
-      <c r="AI39" s="65" t="s">
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="73"/>
+      <c r="AI39" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AJ39" s="65"/>
-      <c r="AK39" s="65"/>
-      <c r="AL39" s="65" t="s">
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AM39" s="65"/>
-      <c r="AN39" s="65"/>
-      <c r="AO39" s="65" t="s">
+      <c r="AM39" s="73"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AP39" s="65"/>
-      <c r="AQ39" s="65"/>
-      <c r="AR39" s="65" t="s">
+      <c r="AP39" s="73"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AS39" s="65"/>
-      <c r="AT39" s="65"/>
-      <c r="AU39" s="65" t="s">
+      <c r="AS39" s="73"/>
+      <c r="AT39" s="73"/>
+      <c r="AU39" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AV39" s="65"/>
-      <c r="AW39" s="65"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
       <c r="AX39" s="49"/>
     </row>
-    <row r="40" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="67"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="67"/>
-      <c r="AI40" s="67"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="67"/>
-      <c r="AL40" s="67"/>
-      <c r="AM40" s="67"/>
-      <c r="AN40" s="67"/>
-      <c r="AO40" s="67"/>
-      <c r="AP40" s="67"/>
-      <c r="AQ40" s="67"/>
-      <c r="AR40" s="67"/>
-      <c r="AS40" s="67"/>
-      <c r="AT40" s="67"/>
-      <c r="AU40" s="67"/>
-      <c r="AV40" s="67"/>
-      <c r="AW40" s="72"/>
+    <row r="40" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A40" s="74"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="117"/>
+      <c r="AC40" s="117"/>
+      <c r="AD40" s="117"/>
+      <c r="AE40" s="117"/>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="75"/>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="75"/>
+      <c r="AJ40" s="75"/>
+      <c r="AK40" s="75"/>
+      <c r="AL40" s="75"/>
+      <c r="AM40" s="75"/>
+      <c r="AN40" s="75"/>
+      <c r="AO40" s="75"/>
+      <c r="AP40" s="75"/>
+      <c r="AQ40" s="75"/>
+      <c r="AR40" s="75"/>
+      <c r="AS40" s="75"/>
+      <c r="AT40" s="75"/>
+      <c r="AU40" s="75"/>
+      <c r="AV40" s="75"/>
+      <c r="AW40" s="80"/>
       <c r="AX40" s="49"/>
     </row>
-    <row r="41" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="118"/>
-      <c r="AC41" s="118"/>
-      <c r="AD41" s="118"/>
-      <c r="AE41" s="118"/>
-      <c r="AF41" s="55"/>
-      <c r="AG41" s="55"/>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="55"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="55"/>
-      <c r="AN41" s="55"/>
-      <c r="AO41" s="55"/>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
-      <c r="AT41" s="55"/>
-      <c r="AU41" s="55"/>
-      <c r="AV41" s="55"/>
-      <c r="AW41" s="73"/>
+    <row r="41" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="124"/>
+      <c r="AC41" s="124"/>
+      <c r="AD41" s="124"/>
+      <c r="AE41" s="124"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="63"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="63"/>
+      <c r="AO41" s="63"/>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="63"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="63"/>
+      <c r="AU41" s="63"/>
+      <c r="AV41" s="63"/>
+      <c r="AW41" s="81"/>
       <c r="AX41" s="49"/>
     </row>
-    <row r="42" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55"/>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="107"/>
-      <c r="AD42" s="107"/>
-      <c r="AE42" s="107"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55"/>
-      <c r="AT42" s="55"/>
-      <c r="AU42" s="55"/>
-      <c r="AV42" s="55"/>
-      <c r="AW42" s="73"/>
+    <row r="42" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="63"/>
+      <c r="AM42" s="63"/>
+      <c r="AN42" s="63"/>
+      <c r="AO42" s="63"/>
+      <c r="AP42" s="63"/>
+      <c r="AQ42" s="63"/>
+      <c r="AR42" s="63"/>
+      <c r="AS42" s="63"/>
+      <c r="AT42" s="63"/>
+      <c r="AU42" s="63"/>
+      <c r="AV42" s="63"/>
+      <c r="AW42" s="81"/>
       <c r="AX42" s="49"/>
     </row>
-    <row r="43" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="107"/>
-      <c r="AC43" s="107"/>
-      <c r="AD43" s="107"/>
-      <c r="AE43" s="107"/>
-      <c r="AF43" s="55"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="55"/>
-      <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="55"/>
-      <c r="AQ43" s="55"/>
-      <c r="AR43" s="55"/>
-      <c r="AS43" s="55"/>
-      <c r="AT43" s="55"/>
-      <c r="AU43" s="55"/>
-      <c r="AV43" s="55"/>
-      <c r="AW43" s="73"/>
+    <row r="43" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="112"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="63"/>
+      <c r="AM43" s="63"/>
+      <c r="AN43" s="63"/>
+      <c r="AO43" s="63"/>
+      <c r="AP43" s="63"/>
+      <c r="AQ43" s="63"/>
+      <c r="AR43" s="63"/>
+      <c r="AS43" s="63"/>
+      <c r="AT43" s="63"/>
+      <c r="AU43" s="63"/>
+      <c r="AV43" s="63"/>
+      <c r="AW43" s="81"/>
       <c r="AX43" s="49"/>
     </row>
-    <row r="44" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="107"/>
-      <c r="AC44" s="107"/>
-      <c r="AD44" s="107"/>
-      <c r="AE44" s="107"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="55"/>
-      <c r="AT44" s="55"/>
-      <c r="AU44" s="55"/>
-      <c r="AV44" s="55"/>
-      <c r="AW44" s="73"/>
+    <row r="44" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="63"/>
+      <c r="AA44" s="63"/>
+      <c r="AB44" s="114"/>
+      <c r="AC44" s="114"/>
+      <c r="AD44" s="114"/>
+      <c r="AE44" s="114"/>
+      <c r="AF44" s="63"/>
+      <c r="AG44" s="63"/>
+      <c r="AH44" s="63"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="63"/>
+      <c r="AK44" s="63"/>
+      <c r="AL44" s="63"/>
+      <c r="AM44" s="63"/>
+      <c r="AN44" s="63"/>
+      <c r="AO44" s="63"/>
+      <c r="AP44" s="63"/>
+      <c r="AQ44" s="63"/>
+      <c r="AR44" s="63"/>
+      <c r="AS44" s="63"/>
+      <c r="AT44" s="63"/>
+      <c r="AU44" s="63"/>
+      <c r="AV44" s="63"/>
+      <c r="AW44" s="81"/>
       <c r="AX44" s="49"/>
     </row>
-    <row r="45" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
-      <c r="W45" s="55"/>
-      <c r="X45" s="55"/>
-      <c r="Y45" s="55"/>
-      <c r="Z45" s="55"/>
-      <c r="AA45" s="55"/>
-      <c r="AB45" s="107"/>
-      <c r="AC45" s="107"/>
-      <c r="AD45" s="107"/>
-      <c r="AE45" s="107"/>
-      <c r="AF45" s="55"/>
-      <c r="AG45" s="55"/>
-      <c r="AH45" s="55"/>
-      <c r="AI45" s="55"/>
-      <c r="AJ45" s="55"/>
-      <c r="AK45" s="55"/>
-      <c r="AL45" s="55"/>
-      <c r="AM45" s="55"/>
-      <c r="AN45" s="55"/>
-      <c r="AO45" s="55"/>
-      <c r="AP45" s="55"/>
-      <c r="AQ45" s="55"/>
-      <c r="AR45" s="55"/>
-      <c r="AS45" s="55"/>
-      <c r="AT45" s="55"/>
-      <c r="AU45" s="55"/>
-      <c r="AV45" s="55"/>
-      <c r="AW45" s="73"/>
+    <row r="45" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="114"/>
+      <c r="AC45" s="114"/>
+      <c r="AD45" s="114"/>
+      <c r="AE45" s="114"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="63"/>
+      <c r="AL45" s="63"/>
+      <c r="AM45" s="63"/>
+      <c r="AN45" s="63"/>
+      <c r="AO45" s="63"/>
+      <c r="AP45" s="63"/>
+      <c r="AQ45" s="63"/>
+      <c r="AR45" s="63"/>
+      <c r="AS45" s="63"/>
+      <c r="AT45" s="63"/>
+      <c r="AU45" s="63"/>
+      <c r="AV45" s="63"/>
+      <c r="AW45" s="81"/>
       <c r="AX45" s="49"/>
     </row>
-    <row r="46" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="107"/>
-      <c r="AC46" s="107"/>
-      <c r="AD46" s="107"/>
-      <c r="AE46" s="107"/>
-      <c r="AF46" s="55"/>
-      <c r="AG46" s="55"/>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="55"/>
-      <c r="AJ46" s="55"/>
-      <c r="AK46" s="55"/>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="55"/>
-      <c r="AO46" s="55"/>
-      <c r="AP46" s="55"/>
-      <c r="AQ46" s="55"/>
-      <c r="AR46" s="55"/>
-      <c r="AS46" s="55"/>
-      <c r="AT46" s="55"/>
-      <c r="AU46" s="55"/>
-      <c r="AV46" s="55"/>
-      <c r="AW46" s="73"/>
+    <row r="46" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="63"/>
+      <c r="AB46" s="114"/>
+      <c r="AC46" s="114"/>
+      <c r="AD46" s="114"/>
+      <c r="AE46" s="114"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="63"/>
+      <c r="AL46" s="63"/>
+      <c r="AM46" s="63"/>
+      <c r="AN46" s="63"/>
+      <c r="AO46" s="63"/>
+      <c r="AP46" s="63"/>
+      <c r="AQ46" s="63"/>
+      <c r="AR46" s="63"/>
+      <c r="AS46" s="63"/>
+      <c r="AT46" s="63"/>
+      <c r="AU46" s="63"/>
+      <c r="AV46" s="63"/>
+      <c r="AW46" s="81"/>
       <c r="AX46" s="49"/>
     </row>
-    <row r="47" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="107"/>
-      <c r="AC47" s="107"/>
-      <c r="AD47" s="107"/>
-      <c r="AE47" s="107"/>
-      <c r="AF47" s="55"/>
-      <c r="AG47" s="55"/>
-      <c r="AH47" s="55"/>
-      <c r="AI47" s="55"/>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="55"/>
-      <c r="AO47" s="55"/>
-      <c r="AP47" s="55"/>
-      <c r="AQ47" s="55"/>
-      <c r="AR47" s="55"/>
-      <c r="AS47" s="55"/>
-      <c r="AT47" s="55"/>
-      <c r="AU47" s="55"/>
-      <c r="AV47" s="55"/>
-      <c r="AW47" s="73"/>
+    <row r="47" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
+      <c r="Z47" s="63"/>
+      <c r="AA47" s="63"/>
+      <c r="AB47" s="114"/>
+      <c r="AC47" s="114"/>
+      <c r="AD47" s="114"/>
+      <c r="AE47" s="114"/>
+      <c r="AF47" s="63"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="63"/>
+      <c r="AL47" s="63"/>
+      <c r="AM47" s="63"/>
+      <c r="AN47" s="63"/>
+      <c r="AO47" s="63"/>
+      <c r="AP47" s="63"/>
+      <c r="AQ47" s="63"/>
+      <c r="AR47" s="63"/>
+      <c r="AS47" s="63"/>
+      <c r="AT47" s="63"/>
+      <c r="AU47" s="63"/>
+      <c r="AV47" s="63"/>
+      <c r="AW47" s="81"/>
       <c r="AX47" s="49"/>
     </row>
-    <row r="48" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="107"/>
-      <c r="AC48" s="107"/>
-      <c r="AD48" s="107"/>
-      <c r="AE48" s="107"/>
-      <c r="AF48" s="55"/>
-      <c r="AG48" s="55"/>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="55"/>
-      <c r="AJ48" s="55"/>
-      <c r="AK48" s="55"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="55"/>
-      <c r="AN48" s="55"/>
-      <c r="AO48" s="55"/>
-      <c r="AP48" s="55"/>
-      <c r="AQ48" s="55"/>
-      <c r="AR48" s="55"/>
-      <c r="AS48" s="55"/>
-      <c r="AT48" s="55"/>
-      <c r="AU48" s="55"/>
-      <c r="AV48" s="55"/>
-      <c r="AW48" s="73"/>
+    <row r="48" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
+      <c r="AB48" s="114"/>
+      <c r="AC48" s="114"/>
+      <c r="AD48" s="114"/>
+      <c r="AE48" s="114"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="63"/>
+      <c r="AM48" s="63"/>
+      <c r="AN48" s="63"/>
+      <c r="AO48" s="63"/>
+      <c r="AP48" s="63"/>
+      <c r="AQ48" s="63"/>
+      <c r="AR48" s="63"/>
+      <c r="AS48" s="63"/>
+      <c r="AT48" s="63"/>
+      <c r="AU48" s="63"/>
+      <c r="AV48" s="63"/>
+      <c r="AW48" s="81"/>
       <c r="AX48" s="49"/>
     </row>
-    <row r="49" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A49" s="133"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="108"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="108"/>
-      <c r="U49" s="108"/>
-      <c r="V49" s="108"/>
-      <c r="W49" s="108"/>
-      <c r="X49" s="108"/>
-      <c r="Y49" s="108"/>
-      <c r="Z49" s="108"/>
-      <c r="AA49" s="108"/>
-      <c r="AB49" s="119"/>
-      <c r="AC49" s="119"/>
-      <c r="AD49" s="119"/>
-      <c r="AE49" s="119"/>
-      <c r="AF49" s="108"/>
-      <c r="AG49" s="108"/>
-      <c r="AH49" s="108"/>
-      <c r="AI49" s="108"/>
-      <c r="AJ49" s="108"/>
-      <c r="AK49" s="108"/>
-      <c r="AL49" s="108"/>
-      <c r="AM49" s="108"/>
-      <c r="AN49" s="108"/>
-      <c r="AO49" s="108"/>
-      <c r="AP49" s="108"/>
-      <c r="AQ49" s="108"/>
-      <c r="AR49" s="108"/>
-      <c r="AS49" s="108"/>
-      <c r="AT49" s="108"/>
-      <c r="AU49" s="108"/>
-      <c r="AV49" s="108"/>
-      <c r="AW49" s="143"/>
+    <row r="49" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A49" s="138"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="115"/>
+      <c r="M49" s="115"/>
+      <c r="N49" s="115"/>
+      <c r="O49" s="115"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="115"/>
+      <c r="T49" s="115"/>
+      <c r="U49" s="115"/>
+      <c r="V49" s="115"/>
+      <c r="W49" s="115"/>
+      <c r="X49" s="115"/>
+      <c r="Y49" s="115"/>
+      <c r="Z49" s="115"/>
+      <c r="AA49" s="115"/>
+      <c r="AB49" s="125"/>
+      <c r="AC49" s="125"/>
+      <c r="AD49" s="125"/>
+      <c r="AE49" s="125"/>
+      <c r="AF49" s="115"/>
+      <c r="AG49" s="115"/>
+      <c r="AH49" s="115"/>
+      <c r="AI49" s="115"/>
+      <c r="AJ49" s="115"/>
+      <c r="AK49" s="115"/>
+      <c r="AL49" s="115"/>
+      <c r="AM49" s="115"/>
+      <c r="AN49" s="115"/>
+      <c r="AO49" s="115"/>
+      <c r="AP49" s="115"/>
+      <c r="AQ49" s="115"/>
+      <c r="AR49" s="115"/>
+      <c r="AS49" s="115"/>
+      <c r="AT49" s="115"/>
+      <c r="AU49" s="115"/>
+      <c r="AV49" s="115"/>
+      <c r="AW49" s="148"/>
       <c r="AX49" s="49"/>
     </row>
-    <row r="50" spans="1:50" ht="5.4" customHeight="1">
+    <row r="50" spans="1:50" ht="5.45" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5060,68 +5070,68 @@
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
     </row>
-    <row r="51" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A51" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="141"/>
-      <c r="C51" s="144" t="s">
+    <row r="51" spans="1:50">
+      <c r="A51" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="146"/>
+      <c r="C51" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="144"/>
-      <c r="E51" s="142" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142"/>
-      <c r="L51" s="142"/>
-      <c r="M51" s="142"/>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142"/>
-      <c r="P51" s="142"/>
-      <c r="Q51" s="142"/>
-      <c r="R51" s="142"/>
-      <c r="S51" s="142"/>
-      <c r="T51" s="142"/>
-      <c r="U51" s="142"/>
-      <c r="V51" s="142"/>
-      <c r="W51" s="142"/>
-      <c r="X51" s="142"/>
-      <c r="Y51" s="142"/>
-      <c r="Z51" s="142"/>
-      <c r="AA51" s="142"/>
-      <c r="AB51" s="142"/>
-      <c r="AC51" s="142"/>
-      <c r="AD51" s="142"/>
-      <c r="AE51" s="142"/>
-      <c r="AF51" s="142"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="147"/>
+      <c r="P51" s="147"/>
+      <c r="Q51" s="147"/>
+      <c r="R51" s="147"/>
+      <c r="S51" s="147"/>
+      <c r="T51" s="147"/>
+      <c r="U51" s="147"/>
+      <c r="V51" s="147"/>
+      <c r="W51" s="147"/>
+      <c r="X51" s="147"/>
+      <c r="Y51" s="147"/>
+      <c r="Z51" s="147"/>
+      <c r="AA51" s="147"/>
+      <c r="AB51" s="147"/>
+      <c r="AC51" s="147"/>
+      <c r="AD51" s="147"/>
+      <c r="AE51" s="147"/>
+      <c r="AF51" s="147"/>
       <c r="AG51" s="4"/>
-      <c r="AH51" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI51" s="87"/>
-      <c r="AJ51" s="87"/>
-      <c r="AK51" s="87"/>
-      <c r="AL51" s="87"/>
-      <c r="AM51" s="87"/>
-      <c r="AN51" s="87"/>
-      <c r="AO51" s="87"/>
-      <c r="AP51" s="87"/>
-      <c r="AQ51" s="87"/>
-      <c r="AR51" s="87"/>
-      <c r="AS51" s="87"/>
-      <c r="AT51" s="87"/>
-      <c r="AU51" s="87"/>
-      <c r="AV51" s="87"/>
-      <c r="AW51" s="87"/>
-    </row>
-    <row r="52" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A52" s="145"/>
-      <c r="B52" s="146"/>
+      <c r="AH51" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI51" s="95"/>
+      <c r="AJ51" s="95"/>
+      <c r="AK51" s="95"/>
+      <c r="AL51" s="95"/>
+      <c r="AM51" s="95"/>
+      <c r="AN51" s="95"/>
+      <c r="AO51" s="95"/>
+      <c r="AP51" s="95"/>
+      <c r="AQ51" s="95"/>
+      <c r="AR51" s="95"/>
+      <c r="AS51" s="95"/>
+      <c r="AT51" s="95"/>
+      <c r="AU51" s="95"/>
+      <c r="AV51" s="95"/>
+      <c r="AW51" s="95"/>
+    </row>
+    <row r="52" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A52" s="150"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
@@ -5170,9 +5180,9 @@
       <c r="AV52" s="5"/>
       <c r="AW52" s="9"/>
     </row>
-    <row r="53" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A53" s="134"/>
-      <c r="B53" s="135"/>
+    <row r="53" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A53" s="139"/>
+      <c r="B53" s="140"/>
       <c r="C53" s="23"/>
       <c r="D53" s="24"/>
       <c r="E53" s="25"/>
@@ -5221,9 +5231,9 @@
       <c r="AV53" s="5"/>
       <c r="AW53" s="9"/>
     </row>
-    <row r="54" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A54" s="134"/>
-      <c r="B54" s="135"/>
+    <row r="54" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A54" s="139"/>
+      <c r="B54" s="140"/>
       <c r="C54" s="23"/>
       <c r="D54" s="24"/>
       <c r="E54" s="25"/>
@@ -5272,9 +5282,9 @@
       <c r="AV54" s="5"/>
       <c r="AW54" s="9"/>
     </row>
-    <row r="55" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
+    <row r="55" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A55" s="139"/>
+      <c r="B55" s="140"/>
       <c r="C55" s="23"/>
       <c r="D55" s="24"/>
       <c r="E55" s="25"/>
@@ -5323,9 +5333,9 @@
       <c r="AV55" s="5"/>
       <c r="AW55" s="9"/>
     </row>
-    <row r="56" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A56" s="134"/>
-      <c r="B56" s="135"/>
+    <row r="56" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A56" s="139"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="25"/>
@@ -5374,9 +5384,9 @@
       <c r="AV56" s="5"/>
       <c r="AW56" s="9"/>
     </row>
-    <row r="57" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="134"/>
-      <c r="B57" s="135"/>
+    <row r="57" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A57" s="139"/>
+      <c r="B57" s="140"/>
       <c r="C57" s="23"/>
       <c r="D57" s="24"/>
       <c r="E57" s="25"/>
@@ -5425,9 +5435,9 @@
       <c r="AV57" s="5"/>
       <c r="AW57" s="9"/>
     </row>
-    <row r="58" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="134"/>
-      <c r="B58" s="135"/>
+    <row r="58" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A58" s="139"/>
+      <c r="B58" s="140"/>
       <c r="C58" s="23"/>
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
@@ -5476,9 +5486,9 @@
       <c r="AV58" s="5"/>
       <c r="AW58" s="9"/>
     </row>
-    <row r="59" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="134"/>
-      <c r="B59" s="135"/>
+    <row r="59" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A59" s="139"/>
+      <c r="B59" s="140"/>
       <c r="C59" s="23"/>
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
@@ -5527,9 +5537,9 @@
       <c r="AV59" s="5"/>
       <c r="AW59" s="9"/>
     </row>
-    <row r="60" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="134"/>
-      <c r="B60" s="135"/>
+    <row r="60" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A60" s="139"/>
+      <c r="B60" s="140"/>
       <c r="C60" s="29"/>
       <c r="D60" s="24"/>
       <c r="E60" s="25"/>
@@ -5578,9 +5588,9 @@
       <c r="AV60" s="5"/>
       <c r="AW60" s="9"/>
     </row>
-    <row r="61" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A61" s="136"/>
-      <c r="B61" s="137"/>
+    <row r="61" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A61" s="141"/>
+      <c r="B61" s="142"/>
       <c r="C61" s="30"/>
       <c r="D61" s="31"/>
       <c r="E61" s="32"/>
@@ -5629,7 +5639,7 @@
       <c r="AV61" s="11"/>
       <c r="AW61" s="12"/>
     </row>
-    <row r="62" spans="1:50" ht="5.4" customHeight="1">
+    <row r="62" spans="1:50" ht="5.45" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5680,13 +5690,13 @@
       <c r="AV62" s="1"/>
       <c r="AW62" s="1"/>
     </row>
-    <row r="63" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A63" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+    <row r="63" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A63" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="127"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
       <c r="E63" s="35"/>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
@@ -5733,11 +5743,11 @@
       <c r="AV63" s="36"/>
       <c r="AW63" s="38"/>
     </row>
-    <row r="64" spans="1:50" ht="17.399999999999999" customHeight="1">
-      <c r="A64" s="122"/>
-      <c r="B64" s="123"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="123"/>
+    <row r="64" spans="1:50" ht="17.45" customHeight="1">
+      <c r="A64" s="128"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
       <c r="E64" s="39"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -5784,7 +5794,7 @@
       <c r="AV64" s="1"/>
       <c r="AW64" s="41"/>
     </row>
-    <row r="65" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="65" spans="1:49" ht="17.45" customHeight="1">
       <c r="A65" s="47"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -5835,7 +5845,7 @@
       <c r="AV65" s="1"/>
       <c r="AW65" s="41"/>
     </row>
-    <row r="66" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="66" spans="1:49" ht="17.45" customHeight="1">
       <c r="A66" s="49"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5886,7 +5896,7 @@
       <c r="AV66" s="1"/>
       <c r="AW66" s="41"/>
     </row>
-    <row r="67" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="67" spans="1:49" ht="17.45" customHeight="1">
       <c r="A67" s="49"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5937,7 +5947,7 @@
       <c r="AV67" s="1"/>
       <c r="AW67" s="41"/>
     </row>
-    <row r="68" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="68" spans="1:49" ht="17.45" customHeight="1">
       <c r="A68" s="49"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5988,7 +5998,7 @@
       <c r="AV68" s="1"/>
       <c r="AW68" s="41"/>
     </row>
-    <row r="69" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="69" spans="1:49" ht="17.45" customHeight="1">
       <c r="A69" s="49"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6039,7 +6049,7 @@
       <c r="AV69" s="1"/>
       <c r="AW69" s="41"/>
     </row>
-    <row r="70" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="70" spans="1:49" ht="17.45" customHeight="1">
       <c r="A70" s="49"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6090,7 +6100,7 @@
       <c r="AV70" s="1"/>
       <c r="AW70" s="41"/>
     </row>
-    <row r="71" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="71" spans="1:49" ht="17.45" customHeight="1">
       <c r="A71" s="49"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6141,7 +6151,7 @@
       <c r="AV71" s="1"/>
       <c r="AW71" s="41"/>
     </row>
-    <row r="72" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="72" spans="1:49" ht="17.45" customHeight="1">
       <c r="A72" s="49"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6192,7 +6202,7 @@
       <c r="AV72" s="1"/>
       <c r="AW72" s="41"/>
     </row>
-    <row r="73" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="73" spans="1:49" ht="17.45" customHeight="1">
       <c r="A73" s="49"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6243,7 +6253,7 @@
       <c r="AV73" s="1"/>
       <c r="AW73" s="41"/>
     </row>
-    <row r="74" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="74" spans="1:49" ht="17.45" customHeight="1">
       <c r="A74" s="49"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6294,7 +6304,7 @@
       <c r="AV74" s="1"/>
       <c r="AW74" s="41"/>
     </row>
-    <row r="75" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="75" spans="1:49" ht="17.45" customHeight="1">
       <c r="A75" s="49"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6345,7 +6355,7 @@
       <c r="AV75" s="1"/>
       <c r="AW75" s="41"/>
     </row>
-    <row r="76" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="76" spans="1:49" ht="17.45" customHeight="1">
       <c r="A76" s="49"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6396,7 +6406,7 @@
       <c r="AV76" s="1"/>
       <c r="AW76" s="41"/>
     </row>
-    <row r="77" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="77" spans="1:49" ht="17.45" customHeight="1">
       <c r="A77" s="49"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6447,7 +6457,7 @@
       <c r="AV77" s="1"/>
       <c r="AW77" s="41"/>
     </row>
-    <row r="78" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="78" spans="1:49" ht="17.45" customHeight="1">
       <c r="A78" s="49"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6498,7 +6508,7 @@
       <c r="AV78" s="1"/>
       <c r="AW78" s="41"/>
     </row>
-    <row r="79" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="79" spans="1:49" ht="17.45" customHeight="1">
       <c r="A79" s="49"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6549,7 +6559,7 @@
       <c r="AV79" s="1"/>
       <c r="AW79" s="41"/>
     </row>
-    <row r="80" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="80" spans="1:49" ht="17.45" customHeight="1">
       <c r="A80" s="49"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6600,7 +6610,7 @@
       <c r="AV80" s="1"/>
       <c r="AW80" s="41"/>
     </row>
-    <row r="81" spans="1:49" ht="17.399999999999999" customHeight="1">
+    <row r="81" spans="1:49" ht="17.45" customHeight="1">
       <c r="A81" s="50"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -6651,267 +6661,367 @@
       <c r="AV81" s="45"/>
       <c r="AW81" s="46"/>
     </row>
-    <row r="82" spans="1:49" ht="5.4" customHeight="1"/>
-    <row r="83" spans="1:49" ht="17.399999999999999" customHeight="1">
-      <c r="A83" s="124"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="125"/>
-      <c r="D83" s="125"/>
-      <c r="E83" s="125"/>
-      <c r="F83" s="128" t="s">
+    <row r="82" spans="1:49" ht="5.45" customHeight="1"/>
+    <row r="83" spans="1:49" ht="17.45" customHeight="1">
+      <c r="A83" s="130"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="134" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
+      <c r="J83" s="134"/>
+      <c r="K83" s="134"/>
+      <c r="L83" s="134"/>
+      <c r="M83" s="134"/>
+      <c r="N83" s="134"/>
+      <c r="O83" s="134"/>
+      <c r="P83" s="134"/>
+      <c r="Q83" s="134"/>
+      <c r="R83" s="134"/>
+      <c r="S83" s="134"/>
+      <c r="T83" s="134"/>
+      <c r="U83" s="134"/>
+      <c r="V83" s="134"/>
+      <c r="W83" s="134"/>
+      <c r="X83" s="134"/>
+      <c r="Y83" s="134"/>
+      <c r="Z83" s="134"/>
+      <c r="AA83" s="134"/>
+      <c r="AB83" s="134"/>
+      <c r="AC83" s="134"/>
+      <c r="AD83" s="134"/>
+      <c r="AE83" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="G83" s="128"/>
-      <c r="H83" s="128"/>
-      <c r="I83" s="128"/>
-      <c r="J83" s="128"/>
-      <c r="K83" s="128"/>
-      <c r="L83" s="128"/>
-      <c r="M83" s="128"/>
-      <c r="N83" s="128"/>
-      <c r="O83" s="128"/>
-      <c r="P83" s="128"/>
-      <c r="Q83" s="128"/>
-      <c r="R83" s="128"/>
-      <c r="S83" s="128"/>
-      <c r="T83" s="128"/>
-      <c r="U83" s="128"/>
-      <c r="V83" s="128"/>
-      <c r="W83" s="128"/>
-      <c r="X83" s="128"/>
-      <c r="Y83" s="128"/>
-      <c r="Z83" s="128"/>
-      <c r="AA83" s="128"/>
-      <c r="AB83" s="128"/>
-      <c r="AC83" s="128"/>
-      <c r="AD83" s="128"/>
-      <c r="AE83" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF83" s="125"/>
-      <c r="AG83" s="125"/>
-      <c r="AH83" s="125"/>
-      <c r="AI83" s="125"/>
-      <c r="AJ83" s="125"/>
-      <c r="AK83" s="125"/>
-      <c r="AL83" s="125"/>
-      <c r="AM83" s="125"/>
-      <c r="AN83" s="130"/>
+      <c r="AF83" s="131"/>
+      <c r="AG83" s="131"/>
+      <c r="AH83" s="131"/>
+      <c r="AI83" s="131"/>
+      <c r="AJ83" s="131"/>
+      <c r="AK83" s="131"/>
+      <c r="AL83" s="131"/>
+      <c r="AM83" s="131"/>
+      <c r="AN83" s="136"/>
       <c r="AO83" s="51"/>
-      <c r="AP83" s="87" t="s">
+      <c r="AP83" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="AQ83" s="87"/>
-      <c r="AR83" s="87"/>
-      <c r="AS83" s="87"/>
-      <c r="AT83" s="87"/>
-      <c r="AU83" s="87"/>
-      <c r="AV83" s="87"/>
-      <c r="AW83" s="87"/>
-    </row>
-    <row r="84" spans="1:49" ht="11.4" customHeight="1">
-      <c r="A84" s="126"/>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="129"/>
-      <c r="G84" s="129"/>
-      <c r="H84" s="129"/>
-      <c r="I84" s="129"/>
-      <c r="J84" s="129"/>
-      <c r="K84" s="129"/>
-      <c r="L84" s="129"/>
-      <c r="M84" s="129"/>
-      <c r="N84" s="129"/>
-      <c r="O84" s="129"/>
-      <c r="P84" s="129"/>
-      <c r="Q84" s="129"/>
-      <c r="R84" s="129"/>
-      <c r="S84" s="129"/>
-      <c r="T84" s="129"/>
-      <c r="U84" s="129"/>
-      <c r="V84" s="129"/>
-      <c r="W84" s="129"/>
-      <c r="X84" s="129"/>
-      <c r="Y84" s="129"/>
-      <c r="Z84" s="129"/>
-      <c r="AA84" s="129"/>
-      <c r="AB84" s="129"/>
-      <c r="AC84" s="129"/>
-      <c r="AD84" s="129"/>
-      <c r="AE84" s="127"/>
-      <c r="AF84" s="127"/>
-      <c r="AG84" s="127"/>
-      <c r="AH84" s="127"/>
-      <c r="AI84" s="127"/>
-      <c r="AJ84" s="127"/>
-      <c r="AK84" s="127"/>
-      <c r="AL84" s="127"/>
-      <c r="AM84" s="127"/>
-      <c r="AN84" s="131"/>
+      <c r="AQ83" s="95"/>
+      <c r="AR83" s="95"/>
+      <c r="AS83" s="95"/>
+      <c r="AT83" s="95"/>
+      <c r="AU83" s="95"/>
+      <c r="AV83" s="95"/>
+      <c r="AW83" s="95"/>
+    </row>
+    <row r="84" spans="1:49" ht="11.45" customHeight="1">
+      <c r="A84" s="132"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="135"/>
+      <c r="G84" s="135"/>
+      <c r="H84" s="135"/>
+      <c r="I84" s="135"/>
+      <c r="J84" s="135"/>
+      <c r="K84" s="135"/>
+      <c r="L84" s="135"/>
+      <c r="M84" s="135"/>
+      <c r="N84" s="135"/>
+      <c r="O84" s="135"/>
+      <c r="P84" s="135"/>
+      <c r="Q84" s="135"/>
+      <c r="R84" s="135"/>
+      <c r="S84" s="135"/>
+      <c r="T84" s="135"/>
+      <c r="U84" s="135"/>
+      <c r="V84" s="135"/>
+      <c r="W84" s="135"/>
+      <c r="X84" s="135"/>
+      <c r="Y84" s="135"/>
+      <c r="Z84" s="135"/>
+      <c r="AA84" s="135"/>
+      <c r="AB84" s="135"/>
+      <c r="AC84" s="135"/>
+      <c r="AD84" s="135"/>
+      <c r="AE84" s="133"/>
+      <c r="AF84" s="133"/>
+      <c r="AG84" s="133"/>
+      <c r="AH84" s="133"/>
+      <c r="AI84" s="133"/>
+      <c r="AJ84" s="133"/>
+      <c r="AK84" s="133"/>
+      <c r="AL84" s="133"/>
+      <c r="AM84" s="133"/>
+      <c r="AN84" s="137"/>
       <c r="AO84" s="51"/>
-      <c r="AP84" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ84" s="132"/>
-      <c r="AR84" s="132"/>
-      <c r="AS84" s="132"/>
-      <c r="AT84" s="132"/>
-      <c r="AU84" s="132"/>
-      <c r="AV84" s="132"/>
-      <c r="AW84" s="132"/>
-    </row>
-    <row r="85" spans="1:49" ht="39.6" customHeight="1">
-      <c r="A85" s="126"/>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
-      <c r="G85" s="127"/>
-      <c r="H85" s="127"/>
-      <c r="I85" s="127"/>
-      <c r="J85" s="127"/>
-      <c r="K85" s="127"/>
-      <c r="L85" s="127"/>
-      <c r="M85" s="127"/>
-      <c r="N85" s="127"/>
-      <c r="O85" s="127"/>
-      <c r="P85" s="127"/>
-      <c r="Q85" s="127"/>
-      <c r="R85" s="127"/>
-      <c r="S85" s="127"/>
-      <c r="T85" s="127"/>
-      <c r="U85" s="127"/>
-      <c r="V85" s="127"/>
-      <c r="W85" s="127"/>
-      <c r="X85" s="127"/>
-      <c r="Y85" s="127"/>
-      <c r="Z85" s="127"/>
-      <c r="AA85" s="127"/>
-      <c r="AB85" s="127"/>
-      <c r="AC85" s="127"/>
-      <c r="AD85" s="127"/>
-      <c r="AE85" s="127" t="s">
+      <c r="AP84" s="53"/>
+      <c r="AQ84" s="54"/>
+      <c r="AR84" s="54"/>
+      <c r="AS84" s="54"/>
+      <c r="AT84" s="54"/>
+      <c r="AU84" s="54"/>
+      <c r="AV84" s="54"/>
+      <c r="AW84" s="55"/>
+    </row>
+    <row r="85" spans="1:49" ht="15" customHeight="1">
+      <c r="A85" s="132"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
+      <c r="F85" s="133"/>
+      <c r="G85" s="133"/>
+      <c r="H85" s="133"/>
+      <c r="I85" s="133"/>
+      <c r="J85" s="133"/>
+      <c r="K85" s="133"/>
+      <c r="L85" s="133"/>
+      <c r="M85" s="133"/>
+      <c r="N85" s="133"/>
+      <c r="O85" s="133"/>
+      <c r="P85" s="133"/>
+      <c r="Q85" s="133"/>
+      <c r="R85" s="133"/>
+      <c r="S85" s="133"/>
+      <c r="T85" s="133"/>
+      <c r="U85" s="133"/>
+      <c r="V85" s="133"/>
+      <c r="W85" s="133"/>
+      <c r="X85" s="133"/>
+      <c r="Y85" s="133"/>
+      <c r="Z85" s="133"/>
+      <c r="AA85" s="133"/>
+      <c r="AB85" s="133"/>
+      <c r="AC85" s="133"/>
+      <c r="AD85" s="133"/>
+      <c r="AE85" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="AF85" s="127"/>
-      <c r="AG85" s="127"/>
-      <c r="AH85" s="127"/>
-      <c r="AI85" s="127"/>
-      <c r="AJ85" s="127"/>
-      <c r="AK85" s="127"/>
-      <c r="AL85" s="127"/>
-      <c r="AM85" s="127"/>
-      <c r="AN85" s="131"/>
+      <c r="AF85" s="133"/>
+      <c r="AG85" s="133"/>
+      <c r="AH85" s="133"/>
+      <c r="AI85" s="133"/>
+      <c r="AJ85" s="133"/>
+      <c r="AK85" s="133"/>
+      <c r="AL85" s="133"/>
+      <c r="AM85" s="133"/>
+      <c r="AN85" s="137"/>
       <c r="AO85" s="51"/>
-      <c r="AP85" s="132"/>
-      <c r="AQ85" s="132"/>
-      <c r="AR85" s="132"/>
-      <c r="AS85" s="132"/>
-      <c r="AT85" s="132"/>
-      <c r="AU85" s="132"/>
-      <c r="AV85" s="132"/>
-      <c r="AW85" s="132"/>
-    </row>
-    <row r="86" spans="1:49" ht="9" customHeight="1">
-      <c r="A86" s="92"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93"/>
-      <c r="L86" s="93"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="93"/>
-      <c r="P86" s="93"/>
-      <c r="Q86" s="93"/>
-      <c r="R86" s="93"/>
-      <c r="S86" s="93"/>
-      <c r="T86" s="93"/>
-      <c r="U86" s="93"/>
-      <c r="V86" s="93"/>
-      <c r="W86" s="93"/>
-      <c r="X86" s="93"/>
-      <c r="Y86" s="93"/>
-      <c r="Z86" s="93"/>
-      <c r="AA86" s="93"/>
-      <c r="AB86" s="93"/>
-      <c r="AC86" s="93"/>
-      <c r="AD86" s="93"/>
-      <c r="AE86" s="93"/>
-      <c r="AF86" s="93"/>
-      <c r="AG86" s="93"/>
-      <c r="AH86" s="93"/>
-      <c r="AI86" s="93"/>
-      <c r="AJ86" s="93"/>
-      <c r="AK86" s="93"/>
-      <c r="AL86" s="93"/>
-      <c r="AM86" s="93"/>
-      <c r="AN86" s="94"/>
+      <c r="AP85" s="56"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="57"/>
+    </row>
+    <row r="86" spans="1:49" ht="15" customHeight="1">
+      <c r="A86" s="132"/>
+      <c r="B86" s="133"/>
+      <c r="C86" s="133"/>
+      <c r="D86" s="133"/>
+      <c r="E86" s="133"/>
+      <c r="F86" s="133"/>
+      <c r="G86" s="133"/>
+      <c r="H86" s="133"/>
+      <c r="I86" s="133"/>
+      <c r="J86" s="133"/>
+      <c r="K86" s="133"/>
+      <c r="L86" s="133"/>
+      <c r="M86" s="133"/>
+      <c r="N86" s="133"/>
+      <c r="O86" s="133"/>
+      <c r="P86" s="133"/>
+      <c r="Q86" s="133"/>
+      <c r="R86" s="133"/>
+      <c r="S86" s="133"/>
+      <c r="T86" s="133"/>
+      <c r="U86" s="133"/>
+      <c r="V86" s="133"/>
+      <c r="W86" s="133"/>
+      <c r="X86" s="133"/>
+      <c r="Y86" s="133"/>
+      <c r="Z86" s="133"/>
+      <c r="AA86" s="133"/>
+      <c r="AB86" s="133"/>
+      <c r="AC86" s="133"/>
+      <c r="AD86" s="133"/>
+      <c r="AE86" s="133"/>
+      <c r="AF86" s="133"/>
+      <c r="AG86" s="133"/>
+      <c r="AH86" s="133"/>
+      <c r="AI86" s="133"/>
+      <c r="AJ86" s="133"/>
+      <c r="AK86" s="133"/>
+      <c r="AL86" s="133"/>
+      <c r="AM86" s="133"/>
+      <c r="AN86" s="137"/>
       <c r="AO86" s="51"/>
-      <c r="AP86" s="132"/>
-      <c r="AQ86" s="132"/>
-      <c r="AR86" s="132"/>
-      <c r="AS86" s="132"/>
-      <c r="AT86" s="132"/>
-      <c r="AU86" s="132"/>
-      <c r="AV86" s="132"/>
-      <c r="AW86" s="132"/>
-    </row>
-    <row r="87" spans="1:49" ht="6" customHeight="1">
-      <c r="A87" s="36"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
-      <c r="Z87" s="36"/>
-      <c r="AA87" s="36"/>
-      <c r="AB87" s="36"/>
-      <c r="AC87" s="36"/>
-      <c r="AD87" s="36"/>
-      <c r="AE87" s="36"/>
-      <c r="AF87" s="36"/>
-      <c r="AG87" s="36"/>
-      <c r="AH87" s="36"/>
-      <c r="AI87" s="36"/>
-      <c r="AJ87" s="36"/>
-      <c r="AK87" s="36"/>
-      <c r="AL87" s="36"/>
-      <c r="AM87" s="36"/>
-      <c r="AN87" s="36"/>
-    </row>
-    <row r="88" spans="1:49" ht="14.25" customHeight="1"/>
-    <row r="89" spans="1:49" ht="14.25" customHeight="1"/>
+      <c r="AP86" s="56"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="57"/>
+    </row>
+    <row r="87" spans="1:49" ht="15" customHeight="1">
+      <c r="A87" s="132"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="133"/>
+      <c r="D87" s="133"/>
+      <c r="E87" s="133"/>
+      <c r="F87" s="133"/>
+      <c r="G87" s="133"/>
+      <c r="H87" s="133"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="133"/>
+      <c r="K87" s="133"/>
+      <c r="L87" s="133"/>
+      <c r="M87" s="133"/>
+      <c r="N87" s="133"/>
+      <c r="O87" s="133"/>
+      <c r="P87" s="133"/>
+      <c r="Q87" s="133"/>
+      <c r="R87" s="133"/>
+      <c r="S87" s="133"/>
+      <c r="T87" s="133"/>
+      <c r="U87" s="133"/>
+      <c r="V87" s="133"/>
+      <c r="W87" s="133"/>
+      <c r="X87" s="133"/>
+      <c r="Y87" s="133"/>
+      <c r="Z87" s="133"/>
+      <c r="AA87" s="133"/>
+      <c r="AB87" s="133"/>
+      <c r="AC87" s="133"/>
+      <c r="AD87" s="133"/>
+      <c r="AE87" s="133"/>
+      <c r="AF87" s="133"/>
+      <c r="AG87" s="133"/>
+      <c r="AH87" s="133"/>
+      <c r="AI87" s="133"/>
+      <c r="AJ87" s="133"/>
+      <c r="AK87" s="133"/>
+      <c r="AL87" s="133"/>
+      <c r="AM87" s="133"/>
+      <c r="AN87" s="137"/>
+      <c r="AO87" s="51"/>
+      <c r="AP87" s="56"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="57"/>
+    </row>
+    <row r="88" spans="1:49" ht="9" customHeight="1">
+      <c r="A88" s="100"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
+      <c r="N88" s="101"/>
+      <c r="O88" s="101"/>
+      <c r="P88" s="101"/>
+      <c r="Q88" s="101"/>
+      <c r="R88" s="101"/>
+      <c r="S88" s="101"/>
+      <c r="T88" s="101"/>
+      <c r="U88" s="101"/>
+      <c r="V88" s="101"/>
+      <c r="W88" s="101"/>
+      <c r="X88" s="101"/>
+      <c r="Y88" s="101"/>
+      <c r="Z88" s="101"/>
+      <c r="AA88" s="101"/>
+      <c r="AB88" s="101"/>
+      <c r="AC88" s="101"/>
+      <c r="AD88" s="101"/>
+      <c r="AE88" s="101"/>
+      <c r="AF88" s="101"/>
+      <c r="AG88" s="101"/>
+      <c r="AH88" s="101"/>
+      <c r="AI88" s="101"/>
+      <c r="AJ88" s="101"/>
+      <c r="AK88" s="101"/>
+      <c r="AL88" s="101"/>
+      <c r="AM88" s="101"/>
+      <c r="AN88" s="102"/>
+      <c r="AO88" s="51"/>
+      <c r="AP88" s="58"/>
+      <c r="AQ88" s="59"/>
+      <c r="AR88" s="59"/>
+      <c r="AS88" s="59"/>
+      <c r="AT88" s="59"/>
+      <c r="AU88" s="59"/>
+      <c r="AV88" s="59"/>
+      <c r="AW88" s="60"/>
+    </row>
+    <row r="89" spans="1:49" ht="6" customHeight="1">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="36"/>
+      <c r="Z89" s="36"/>
+      <c r="AA89" s="36"/>
+      <c r="AB89" s="36"/>
+      <c r="AC89" s="36"/>
+      <c r="AD89" s="36"/>
+      <c r="AE89" s="36"/>
+      <c r="AF89" s="36"/>
+      <c r="AG89" s="36"/>
+      <c r="AH89" s="36"/>
+      <c r="AI89" s="36"/>
+      <c r="AJ89" s="36"/>
+      <c r="AK89" s="36"/>
+      <c r="AL89" s="36"/>
+      <c r="AM89" s="36"/>
+      <c r="AN89" s="36"/>
+    </row>
+    <row r="90" spans="1:49" ht="14.25" customHeight="1"/>
+    <row r="91" spans="1:49" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="599">
+  <mergeCells count="598">
     <mergeCell ref="A1:AW1"/>
     <mergeCell ref="AU6:AW6"/>
     <mergeCell ref="AU5:AW5"/>
@@ -7097,11 +7207,10 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A83:E86"/>
+    <mergeCell ref="A83:E88"/>
     <mergeCell ref="F83:AD84"/>
     <mergeCell ref="AE83:AN84"/>
-    <mergeCell ref="AE85:AN86"/>
-    <mergeCell ref="AP84:AW86"/>
+    <mergeCell ref="AE85:AN88"/>
     <mergeCell ref="Y49:AA49"/>
     <mergeCell ref="AU17:AW17"/>
     <mergeCell ref="AU18:AW18"/>
@@ -7111,7 +7220,7 @@
     <mergeCell ref="AR21:AT21"/>
     <mergeCell ref="AR17:AT17"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="F85:AD86"/>
+    <mergeCell ref="F85:AD88"/>
     <mergeCell ref="AR23:AT23"/>
     <mergeCell ref="Y40:AA40"/>
     <mergeCell ref="Y41:AA41"/>
@@ -7134,6 +7243,14 @@
     <mergeCell ref="L43:S43"/>
     <mergeCell ref="T43:X43"/>
     <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:S47"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="AL43:AN43"/>
     <mergeCell ref="AO45:AQ45"/>
     <mergeCell ref="AR45:AT45"/>
     <mergeCell ref="AU45:AW45"/>
@@ -7143,19 +7260,15 @@
     <mergeCell ref="Y46:AA46"/>
     <mergeCell ref="AI45:AK45"/>
     <mergeCell ref="AL45:AN45"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:S47"/>
-    <mergeCell ref="T47:X47"/>
-    <mergeCell ref="AF47:AH47"/>
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:S46"/>
     <mergeCell ref="T46:X46"/>
     <mergeCell ref="AF46:AH46"/>
     <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="AB47:AE47"/>
     <mergeCell ref="AR46:AT46"/>
     <mergeCell ref="AU46:AW46"/>
+    <mergeCell ref="AL46:AN46"/>
+    <mergeCell ref="AO46:AQ46"/>
     <mergeCell ref="AO44:AQ44"/>
     <mergeCell ref="AR44:AT44"/>
     <mergeCell ref="AU44:AW44"/>
@@ -7178,14 +7291,8 @@
     <mergeCell ref="V35:W35"/>
     <mergeCell ref="AI44:AK44"/>
     <mergeCell ref="AL44:AN44"/>
-    <mergeCell ref="AL46:AN46"/>
-    <mergeCell ref="AO46:AQ46"/>
     <mergeCell ref="V34:W34"/>
     <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="AL31:AM31"/>
     <mergeCell ref="AO42:AQ42"/>
     <mergeCell ref="AO40:AQ40"/>
     <mergeCell ref="AO41:AQ41"/>
@@ -7194,13 +7301,10 @@
     <mergeCell ref="AI39:AK39"/>
     <mergeCell ref="AL39:AN39"/>
     <mergeCell ref="AO39:AQ39"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="AL43:AN43"/>
     <mergeCell ref="AF33:AG33"/>
     <mergeCell ref="AH33:AI33"/>
     <mergeCell ref="AI40:AK40"/>
     <mergeCell ref="AL40:AN40"/>
-    <mergeCell ref="AJ32:AK32"/>
     <mergeCell ref="AL36:AM36"/>
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="Z32:AA32"/>
@@ -7235,6 +7339,10 @@
     <mergeCell ref="Z31:AA31"/>
     <mergeCell ref="AB31:AC31"/>
     <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AL31:AM31"/>
     <mergeCell ref="AR42:AT42"/>
     <mergeCell ref="AU42:AW42"/>
     <mergeCell ref="AU41:AW41"/>
@@ -7276,6 +7384,7 @@
     <mergeCell ref="AP29:AQ29"/>
     <mergeCell ref="AL32:AM32"/>
     <mergeCell ref="AR32:AW32"/>
+    <mergeCell ref="AJ32:AK32"/>
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="L35:N35"/>
     <mergeCell ref="AB40:AE40"/>
@@ -7515,7 +7624,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.62992126000000004" right="0" top="0.25" bottom="0" header="0" footer="0.118110236220472"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L
 </oddFooter>
